--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H2">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I2">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J2">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N2">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q2">
-        <v>59.11248459590089</v>
+        <v>57.46845564682433</v>
       </c>
       <c r="R2">
-        <v>532.012361363108</v>
+        <v>517.216100821419</v>
       </c>
       <c r="S2">
-        <v>0.002703751663787219</v>
+        <v>0.003233924590742004</v>
       </c>
       <c r="T2">
-        <v>0.00270375166378722</v>
+        <v>0.003233924590742003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H3">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I3">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J3">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q3">
-        <v>418.931338812939</v>
+        <v>422.1047363290641</v>
       </c>
       <c r="R3">
-        <v>3770.382049316452</v>
+        <v>3798.942626961577</v>
       </c>
       <c r="S3">
-        <v>0.0191615411206491</v>
+        <v>0.02375311588451676</v>
       </c>
       <c r="T3">
-        <v>0.0191615411206491</v>
+        <v>0.02375311588451676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H4">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I4">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J4">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N4">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O4">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P4">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q4">
-        <v>673.9261348515266</v>
+        <v>611.8136477989834</v>
       </c>
       <c r="R4">
-        <v>6065.33521366374</v>
+        <v>5506.322830190851</v>
       </c>
       <c r="S4">
-        <v>0.03082477281797184</v>
+        <v>0.03442861267628363</v>
       </c>
       <c r="T4">
-        <v>0.03082477281797185</v>
+        <v>0.03442861267628363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H5">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I5">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J5">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N5">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O5">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P5">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q5">
-        <v>47.12922549120844</v>
+        <v>49.03701946856033</v>
       </c>
       <c r="R5">
-        <v>424.163029420876</v>
+        <v>441.333175217043</v>
       </c>
       <c r="S5">
-        <v>0.002155648213841008</v>
+        <v>0.002759462061946583</v>
       </c>
       <c r="T5">
-        <v>0.002155648213841009</v>
+        <v>0.002759462061946584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H6">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I6">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J6">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N6">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O6">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P6">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q6">
-        <v>597.2641194848609</v>
+        <v>689.9578838806267</v>
       </c>
       <c r="R6">
-        <v>5375.377075363748</v>
+        <v>6209.62095492564</v>
       </c>
       <c r="S6">
-        <v>0.02731832146486331</v>
+        <v>0.03882602624595104</v>
       </c>
       <c r="T6">
-        <v>0.02731832146486332</v>
+        <v>0.03882602624595104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
         <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N7">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q7">
-        <v>214.1764286924704</v>
+        <v>206.6543776594909</v>
       </c>
       <c r="R7">
-        <v>1927.587858232233</v>
+        <v>1859.889398935419</v>
       </c>
       <c r="S7">
-        <v>0.009796236436007079</v>
+        <v>0.01162906965526649</v>
       </c>
       <c r="T7">
-        <v>0.009796236436007079</v>
+        <v>0.01162906965526649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
         <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q8">
-        <v>1517.87255480262</v>
+        <v>1517.872554802619</v>
       </c>
       <c r="R8">
-        <v>13660.85299322358</v>
+        <v>13660.85299322357</v>
       </c>
       <c r="S8">
-        <v>0.06942611993929157</v>
+        <v>0.08541530001702474</v>
       </c>
       <c r="T8">
-        <v>0.06942611993929158</v>
+        <v>0.08541530001702474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
         <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N9">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O9">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P9">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q9">
-        <v>2441.770021201735</v>
+        <v>2200.058574855205</v>
       </c>
       <c r="R9">
-        <v>21975.93019081562</v>
+        <v>19800.52717369685</v>
       </c>
       <c r="S9">
-        <v>0.111684355725216</v>
+        <v>0.1238039798741349</v>
       </c>
       <c r="T9">
-        <v>0.111684355725216</v>
+        <v>0.1238039798741349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
         <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N10">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O10">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P10">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q10">
-        <v>170.7586692008057</v>
+        <v>176.335254297227</v>
       </c>
       <c r="R10">
-        <v>1536.828022807251</v>
+        <v>1587.017288675043</v>
       </c>
       <c r="S10">
-        <v>0.007810347325339549</v>
+        <v>0.009922920472947471</v>
       </c>
       <c r="T10">
-        <v>0.00781034732533955</v>
+        <v>0.009922920472947473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
         <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N11">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O11">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P11">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q11">
-        <v>2164.008110501431</v>
+        <v>2481.062271463515</v>
       </c>
       <c r="R11">
-        <v>19476.07299451287</v>
+        <v>22329.56044317163</v>
       </c>
       <c r="S11">
-        <v>0.09897977676314773</v>
+        <v>0.1396169115828929</v>
       </c>
       <c r="T11">
-        <v>0.09897977676314776</v>
+        <v>0.1396169115828929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H12">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N12">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q12">
-        <v>210.4183008859986</v>
+        <v>133.2336482250283</v>
       </c>
       <c r="R12">
-        <v>1893.764707973987</v>
+        <v>1199.102834025255</v>
       </c>
       <c r="S12">
-        <v>0.009624343063922737</v>
+        <v>0.007497462154840389</v>
       </c>
       <c r="T12">
-        <v>0.009624343063922737</v>
+        <v>0.007497462154840387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H13">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q13">
-        <v>1491.238629259511</v>
+        <v>978.5986646274627</v>
       </c>
       <c r="R13">
-        <v>13421.1476633356</v>
+        <v>8807.387981647164</v>
       </c>
       <c r="S13">
-        <v>0.06820790823676134</v>
+        <v>0.0550687198809547</v>
       </c>
       <c r="T13">
-        <v>0.06820790823676136</v>
+        <v>0.05506871988095469</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H14">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N14">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O14">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P14">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q14">
-        <v>2398.924578919832</v>
+        <v>1418.415779798766</v>
       </c>
       <c r="R14">
-        <v>21590.32121027849</v>
+        <v>12765.74201818889</v>
       </c>
       <c r="S14">
-        <v>0.1097246438868909</v>
+        <v>0.07981856513384838</v>
       </c>
       <c r="T14">
-        <v>0.1097246438868909</v>
+        <v>0.07981856513384837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H15">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N15">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O15">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P15">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q15">
-        <v>167.7623875518988</v>
+        <v>113.6863854847483</v>
       </c>
       <c r="R15">
-        <v>1509.861487967089</v>
+        <v>1023.177469362735</v>
       </c>
       <c r="S15">
-        <v>0.007673300108515763</v>
+        <v>0.006397478295069143</v>
       </c>
       <c r="T15">
-        <v>0.007673300108515764</v>
+        <v>0.006397478295069143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H16">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N16">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O16">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P16">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q16">
-        <v>2126.036522763439</v>
+        <v>1599.583718692049</v>
       </c>
       <c r="R16">
-        <v>19134.32870487095</v>
+        <v>14396.25346822844</v>
       </c>
       <c r="S16">
-        <v>0.09724299063031858</v>
+        <v>0.09001343545090743</v>
       </c>
       <c r="T16">
-        <v>0.09724299063031859</v>
+        <v>0.09001343545090741</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H17">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I17">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J17">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N17">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q17">
-        <v>34.98343267014911</v>
+        <v>29.374284149438</v>
       </c>
       <c r="R17">
-        <v>314.850894031342</v>
+        <v>264.368557344942</v>
       </c>
       <c r="S17">
-        <v>0.001600110618484523</v>
+        <v>0.001652980209353511</v>
       </c>
       <c r="T17">
-        <v>0.001600110618484523</v>
+        <v>0.00165298020935351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H18">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I18">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J18">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q18">
-        <v>247.9282741195109</v>
+        <v>215.7535699576206</v>
       </c>
       <c r="R18">
-        <v>2231.354467075598</v>
+        <v>1941.782129618586</v>
       </c>
       <c r="S18">
-        <v>0.01134001536617876</v>
+        <v>0.01214110884959688</v>
       </c>
       <c r="T18">
-        <v>0.01134001536617876</v>
+        <v>0.01214110884959688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H19">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I19">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J19">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N19">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O19">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P19">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q19">
-        <v>398.8370599612234</v>
+        <v>312.7209133197687</v>
       </c>
       <c r="R19">
-        <v>3589.53353965101</v>
+        <v>2814.488219877918</v>
       </c>
       <c r="S19">
-        <v>0.01824244695214415</v>
+        <v>0.01759775585130037</v>
       </c>
       <c r="T19">
-        <v>0.01824244695214416</v>
+        <v>0.01759775585130036</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H20">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I20">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J20">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N20">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O20">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P20">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q20">
-        <v>27.89160526814156</v>
+        <v>25.064660734286</v>
       </c>
       <c r="R20">
-        <v>251.024447413274</v>
+        <v>225.581946608574</v>
       </c>
       <c r="S20">
-        <v>0.001275736837403439</v>
+        <v>0.001410464606972472</v>
       </c>
       <c r="T20">
-        <v>0.001275736837403439</v>
+        <v>0.001410464606972472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H21">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I21">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J21">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N21">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O21">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P21">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q21">
-        <v>353.4676177651891</v>
+        <v>352.6633646953486</v>
       </c>
       <c r="R21">
-        <v>3181.208559886702</v>
+        <v>3173.970282258138</v>
       </c>
       <c r="S21">
-        <v>0.01616728963704913</v>
+        <v>0.01984543893698883</v>
       </c>
       <c r="T21">
-        <v>0.01616728963704914</v>
+        <v>0.01984543893698883</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H22">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I22">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J22">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N22">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q22">
-        <v>200.7541125767532</v>
+        <v>131.209222483858</v>
       </c>
       <c r="R22">
-        <v>1806.787013190779</v>
+        <v>1180.883002354722</v>
       </c>
       <c r="S22">
-        <v>0.009182311817919467</v>
+        <v>0.007383541568097362</v>
       </c>
       <c r="T22">
-        <v>0.009182311817919469</v>
+        <v>0.00738354156809736</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H23">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I23">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J23">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q23">
-        <v>1422.748336986917</v>
+        <v>963.7292952651471</v>
       </c>
       <c r="R23">
-        <v>12804.73503288225</v>
+        <v>8673.563657386325</v>
       </c>
       <c r="S23">
-        <v>0.06507522411848723</v>
+        <v>0.05423197529319101</v>
       </c>
       <c r="T23">
-        <v>0.06507522411848726</v>
+        <v>0.05423197529319101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H24">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I24">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J24">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N24">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O24">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P24">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q24">
-        <v>2288.745669705472</v>
+        <v>1396.863585930615</v>
       </c>
       <c r="R24">
-        <v>20598.71102734925</v>
+        <v>12571.77227337554</v>
       </c>
       <c r="S24">
-        <v>0.1046851600766766</v>
+        <v>0.07860575770844991</v>
       </c>
       <c r="T24">
-        <v>0.1046851600766766</v>
+        <v>0.07860575770844988</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H25">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I25">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J25">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N25">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O25">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P25">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q25">
-        <v>160.0573196101681</v>
+        <v>111.958971665026</v>
       </c>
       <c r="R25">
-        <v>1440.515876491513</v>
+        <v>1007.630744985234</v>
       </c>
       <c r="S25">
-        <v>0.00732087725893565</v>
+        <v>0.006300271471480239</v>
       </c>
       <c r="T25">
-        <v>0.007320877258935652</v>
+        <v>0.006300271471480239</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H26">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I26">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J26">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N26">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O26">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P26">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q26">
-        <v>2028.390941453233</v>
+        <v>1575.278758958395</v>
       </c>
       <c r="R26">
-        <v>18255.5184730791</v>
+        <v>14177.50883062555</v>
       </c>
       <c r="S26">
-        <v>0.09277676992019727</v>
+        <v>0.0886457215272429</v>
       </c>
       <c r="T26">
-        <v>0.09277676992019732</v>
+        <v>0.0886457215272429</v>
       </c>
     </row>
   </sheetData>
